--- a/src/test/resources/testdata/TechBloomersDsalgo.xlsx
+++ b/src/test/resources/testdata/TechBloomersDsalgo.xlsx
@@ -7,22 +7,144 @@
     <workbookView windowWidth="28800" windowHeight="10960"/>
   </bookViews>
   <sheets>
-    <sheet name="ArraypythonCode" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="ArraypythonCode" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>no username and Pwd</t>
+  </si>
+  <si>
+    <t>Selguru</t>
+  </si>
+  <si>
+    <t>Usrname and no Pwd</t>
+  </si>
+  <si>
+    <t>Se123!@#</t>
+  </si>
+  <si>
+    <t>no username and valid pwd</t>
+  </si>
+  <si>
+    <t>Valid username and pwd</t>
+  </si>
+  <si>
+    <t>Numpy4</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>valid Username and Invalid Pwd</t>
+  </si>
+  <si>
+    <t>Tester@4</t>
+  </si>
+  <si>
+    <t>invalid username and valid pwd</t>
+  </si>
+  <si>
+    <t>invalid both</t>
+  </si>
   <si>
     <t>ArraypythonCode</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>print("This is Array in python")</t>
   </si>
   <si>
+    <t>This is Array in python</t>
+  </si>
+  <si>
     <t>print('Hello, world!)</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):
+c=0
+for i in nums:
+j=str(i)
+x=len(j)
+if x%2==0:
+c=c+1
+\b
+\b
+\b
+\b
+print c
+return c
+findNumbers([12,345,2,6,7896])</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+\b
+\b
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>[4, 9, 9, 49, 121]</t>
+  </si>
+  <si>
+    <t>submission success</t>
   </si>
 </sst>
 </file>
@@ -30,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -51,6 +173,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -58,9 +188,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,124 +295,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,19 +326,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,163 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +517,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,46 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +598,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,158 +622,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -972,30 +1105,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="28.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="Tester@4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" ht="224" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="266" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="196" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="154" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="168" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TechBloomersDsalgo.xlsx
+++ b/src/test/resources/testdata/TechBloomersDsalgo.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10960"/>
+    <workbookView windowWidth="28800" windowHeight="10960" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="ArraypythonCode" sheetId="1" r:id="rId2"/>
+    <sheet name="TreepythonCode" sheetId="3" r:id="rId3"/>
+    <sheet name="GraphpythonCode" sheetId="4" r:id="rId4"/>
+    <sheet name="StackpythonCode" sheetId="5" r:id="rId5"/>
+    <sheet name="Queuecode" sheetId="6" r:id="rId6"/>
+    <sheet name="Linkedlistcode" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>username</t>
   </si>
@@ -145,6 +150,36 @@
   </si>
   <si>
     <t>submission success</t>
+  </si>
+  <si>
+    <t>TreepythonCode</t>
+  </si>
+  <si>
+    <t>print("This is Tree in python")</t>
+  </si>
+  <si>
+    <t>GraphpythonCode</t>
+  </si>
+  <si>
+    <t>print("This is Graph in python")</t>
+  </si>
+  <si>
+    <t>StackpythonCode</t>
+  </si>
+  <si>
+    <t>print("This is Stack in python")</t>
+  </si>
+  <si>
+    <t>Queuecode</t>
+  </si>
+  <si>
+    <t>print("This is Queue in python")</t>
+  </si>
+  <si>
+    <t>Linkedlistcode</t>
+  </si>
+  <si>
+    <t>print("This is LinkedList in python")</t>
   </si>
 </sst>
 </file>
@@ -771,10 +806,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1107,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1209,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1220,18 +1255,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1239,18 +1274,18 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" ht="224" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="266" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -1258,7 +1293,7 @@
       </c>
     </row>
     <row r="6" ht="196" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -1266,7 +1301,7 @@
       </c>
     </row>
     <row r="7" ht="154" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
@@ -1274,11 +1309,189 @@
       </c>
     </row>
     <row r="8" ht="168" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TechBloomersDsalgo.xlsx
+++ b/src/test/resources/testdata/TechBloomersDsalgo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rushm\git\TechBloomers_DsAlgo\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121DC7F-DB8C-4F0A-ABF3-82FA385F390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -179,20 +185,14 @@
     <t>Linkedlistcode</t>
   </si>
   <si>
-    <t>print("This is LinkedList in python")</t>
+    <t>print("This is Linkedlist in python")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,341 +212,18 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -554,329 +231,43 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1134,52 +525,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="28.4375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1187,10 +578,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1212,7 +603,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -1232,26 +623,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="Tester@4"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1262,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,15 +665,15 @@
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="224" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="172.8">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="266" spans="1:2">
+    <row r="5" spans="1:2" ht="273.60000000000002">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="196" spans="1:2">
+    <row r="6" spans="1:2" ht="201.6">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="154" spans="1:2">
+    <row r="7" spans="1:2" ht="158.4">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="168" spans="1:2">
+    <row r="8" spans="1:2" ht="172.8">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1317,61 +706,57 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:1">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3">
       <c r="C6" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1379,7 +764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:1">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,23 +775,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1414,7 +797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:1">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1425,23 +808,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1449,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:1">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1460,23 +841,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1484,7 +863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:1">
+    <row r="2" spans="1:1" ht="43.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +874,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>